--- a/runtime/file/Grade.xlsx
+++ b/runtime/file/Grade.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>学号</t>
   </si>
@@ -46,12 +46,24 @@
     <t>体育平均值</t>
   </si>
   <si>
+    <t>电工学</t>
+  </si>
+  <si>
+    <t>电工学平均值</t>
+  </si>
+  <si>
     <t>总成绩</t>
   </si>
   <si>
     <t>班级总成绩平均值</t>
   </si>
   <si>
+    <t>2005010703</t>
+  </si>
+  <si>
+    <t>李2</t>
+  </si>
+  <si>
     <t>2005010701</t>
   </si>
   <si>
@@ -62,12 +74,6 @@
   </si>
   <si>
     <t>李1</t>
-  </si>
-  <si>
-    <t>2005010703</t>
-  </si>
-  <si>
-    <t>李2</t>
   </si>
 </sst>
 </file>
@@ -390,9 +396,10 @@
     <col customWidth="true" max="7" min="7" style="1" width="12"/>
     <col customWidth="true" max="8" min="8" style="1" width="18"/>
     <col customWidth="true" max="9" min="9" style="1" width="12"/>
-    <col customWidth="true" max="10" min="10" style="1" width="18"/>
-    <col customWidth="true" max="11" min="11" style="1" width="15"/>
-    <col customWidth="true" max="12" min="12" style="1" width="20"/>
+    <col customWidth="true" max="11" min="10" style="1" width="18"/>
+    <col customWidth="true" max="12" min="12" style="1" width="24"/>
+    <col customWidth="true" max="13" min="13" style="1" width="15"/>
+    <col customWidth="true" max="14" min="14" style="1" width="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -432,119 +439,143 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1">
         <v>100</v>
       </c>
       <c r="D2" s="1">
-        <v>96.66666666666667</v>
+        <v>83.33333333333333</v>
       </c>
       <c r="E2" s="1">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="F2" s="1">
+        <v>72</v>
+      </c>
+      <c r="G2" s="1">
+        <v>100</v>
+      </c>
+      <c r="H2" s="1">
         <v>83.33333333333333</v>
       </c>
-      <c r="G2" s="1">
-        <v>70</v>
-      </c>
-      <c r="H2" s="1">
-        <v>86.66666666666667</v>
-      </c>
       <c r="I2" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>56.666666666666664</v>
+        <v>50</v>
       </c>
       <c r="K2" s="1">
-        <v>344</v>
+        <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>323.3333333333333</v>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="M2" s="1">
+        <v>266</v>
+      </c>
+      <c r="N2" s="1">
+        <v>315.3333333333333</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D3" s="1">
-        <v>96.66666666666667</v>
+        <v>83.33333333333333</v>
       </c>
       <c r="E3" s="1">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F3" s="1">
+        <v>72</v>
+      </c>
+      <c r="G3" s="1">
+        <v>60</v>
+      </c>
+      <c r="H3" s="1">
         <v>83.33333333333333</v>
       </c>
-      <c r="G3" s="1">
-        <v>90</v>
-      </c>
-      <c r="H3" s="1">
-        <v>86.66666666666667</v>
-      </c>
       <c r="I3" s="1">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="J3" s="1">
-        <v>56.666666666666664</v>
+        <v>50</v>
       </c>
       <c r="K3" s="1">
-        <v>360</v>
+        <v>80</v>
       </c>
       <c r="L3" s="1">
-        <v>323.3333333333333</v>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="M3" s="1">
+        <v>320</v>
+      </c>
+      <c r="N3" s="1">
+        <v>315.3333333333333</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D4" s="1">
-        <v>96.66666666666667</v>
+        <v>83.33333333333333</v>
       </c>
       <c r="E4" s="1">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="F4" s="1">
+        <v>72</v>
+      </c>
+      <c r="G4" s="1">
+        <v>90</v>
+      </c>
+      <c r="H4" s="1">
         <v>83.33333333333333</v>
       </c>
-      <c r="G4" s="1">
-        <v>100</v>
-      </c>
-      <c r="H4" s="1">
-        <v>86.66666666666667</v>
-      </c>
       <c r="I4" s="1">
+        <v>90</v>
+      </c>
+      <c r="J4" s="1">
+        <v>50</v>
+      </c>
+      <c r="K4" s="1">
         <v>0</v>
       </c>
-      <c r="J4" s="1">
-        <v>56.666666666666664</v>
-      </c>
-      <c r="K4" s="1">
-        <v>266</v>
-      </c>
       <c r="L4" s="1">
-        <v>323.3333333333333</v>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="M4" s="1">
+        <v>360</v>
+      </c>
+      <c r="N4" s="1">
+        <v>315.3333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/runtime/file/Grade.xlsx
+++ b/runtime/file/Grade.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>学号</t>
   </si>
@@ -44,6 +44,12 @@
   </si>
   <si>
     <t>体育平均值</t>
+  </si>
+  <si>
+    <t>数据结构</t>
+  </si>
+  <si>
+    <t>数据结构平均值</t>
   </si>
   <si>
     <t>电工学</t>
@@ -396,10 +402,13 @@
     <col customWidth="true" max="7" min="7" style="1" width="12"/>
     <col customWidth="true" max="8" min="8" style="1" width="18"/>
     <col customWidth="true" max="9" min="9" style="1" width="12"/>
-    <col customWidth="true" max="11" min="10" style="1" width="18"/>
-    <col customWidth="true" max="12" min="12" style="1" width="24"/>
-    <col customWidth="true" max="13" min="13" style="1" width="15"/>
-    <col customWidth="true" max="14" min="14" style="1" width="20"/>
+    <col customWidth="true" max="10" min="10" style="1" width="18"/>
+    <col customWidth="true" max="11" min="11" style="1" width="24"/>
+    <col customWidth="true" max="12" min="12" style="1" width="30"/>
+    <col customWidth="true" max="13" min="13" style="1" width="18"/>
+    <col customWidth="true" max="14" min="14" style="1" width="24"/>
+    <col customWidth="true" max="15" min="15" style="1" width="15"/>
+    <col customWidth="true" max="16" min="16" style="1" width="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -445,28 +454,34 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D2" s="1">
-        <v>83.33333333333333</v>
+        <v>83</v>
       </c>
       <c r="E2" s="1">
         <v>66</v>
       </c>
       <c r="F2" s="1">
-        <v>72</v>
+        <v>85.33333333333333</v>
       </c>
       <c r="G2" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H2" s="1">
         <v>83.33333333333333</v>
@@ -475,83 +490,95 @@
         <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>26.666666666666668</v>
+        <v>35</v>
       </c>
       <c r="M2" s="1">
-        <v>266</v>
+        <v>60</v>
       </c>
       <c r="N2" s="1">
-        <v>315.3333333333333</v>
+        <v>66.66666666666667</v>
+      </c>
+      <c r="O2" s="1">
+        <v>315</v>
+      </c>
+      <c r="P2" s="1">
+        <v>413.3333333333333</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1">
         <v>60</v>
       </c>
       <c r="D3" s="1">
-        <v>83.33333333333333</v>
+        <v>83</v>
       </c>
       <c r="E3" s="1">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="F3" s="1">
-        <v>72</v>
+        <v>85.33333333333333</v>
       </c>
       <c r="G3" s="1">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H3" s="1">
         <v>83.33333333333333</v>
       </c>
       <c r="I3" s="1">
+        <v>90</v>
+      </c>
+      <c r="J3" s="1">
         <v>60</v>
       </c>
-      <c r="J3" s="1">
-        <v>50</v>
-      </c>
       <c r="K3" s="1">
+        <v>85</v>
+      </c>
+      <c r="L3" s="1">
+        <v>35</v>
+      </c>
+      <c r="M3" s="1">
         <v>80</v>
       </c>
-      <c r="L3" s="1">
-        <v>26.666666666666668</v>
-      </c>
-      <c r="M3" s="1">
-        <v>320</v>
-      </c>
       <c r="N3" s="1">
-        <v>315.3333333333333</v>
+        <v>66.66666666666667</v>
+      </c>
+      <c r="O3" s="1">
+        <v>485</v>
+      </c>
+      <c r="P3" s="1">
+        <v>413.3333333333333</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1">
         <v>90</v>
       </c>
       <c r="D4" s="1">
-        <v>83.33333333333333</v>
+        <v>83</v>
       </c>
       <c r="E4" s="1">
         <v>90</v>
       </c>
       <c r="F4" s="1">
-        <v>72</v>
+        <v>85.33333333333333</v>
       </c>
       <c r="G4" s="1">
         <v>90</v>
@@ -563,19 +590,25 @@
         <v>90</v>
       </c>
       <c r="J4" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L4" s="1">
-        <v>26.666666666666668</v>
+        <v>35</v>
       </c>
       <c r="M4" s="1">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="N4" s="1">
-        <v>315.3333333333333</v>
+        <v>66.66666666666667</v>
+      </c>
+      <c r="O4" s="1">
+        <v>440</v>
+      </c>
+      <c r="P4" s="1">
+        <v>413.3333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/runtime/file/Grade.xlsx
+++ b/runtime/file/Grade.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="计算机科学与技术七班班级成绩表" sheetId="1" r:id="rId1"/>
+    <sheet name="数据科学与大数据技术一班班级成绩表" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>学号</t>
   </si>
@@ -22,40 +22,16 @@
     <t>姓名</t>
   </si>
   <si>
-    <t>数学</t>
-  </si>
-  <si>
-    <t>数学平均值</t>
-  </si>
-  <si>
-    <t>Java</t>
-  </si>
-  <si>
-    <t>Java平均值</t>
-  </si>
-  <si>
-    <t>英语</t>
-  </si>
-  <si>
-    <t>英语平均值</t>
-  </si>
-  <si>
-    <t>体育</t>
-  </si>
-  <si>
-    <t>体育平均值</t>
-  </si>
-  <si>
-    <t>数据结构</t>
-  </si>
-  <si>
-    <t>数据结构平均值</t>
-  </si>
-  <si>
-    <t>电工学</t>
-  </si>
-  <si>
-    <t>电工学平均值</t>
+    <t>人工智能</t>
+  </si>
+  <si>
+    <t>人工智能平均值</t>
+  </si>
+  <si>
+    <t>分布式系统</t>
+  </si>
+  <si>
+    <t>分布式系统平均值</t>
   </si>
   <si>
     <t>总成绩</t>
@@ -64,22 +40,10 @@
     <t>班级总成绩平均值</t>
   </si>
   <si>
-    <t>2005010703</t>
-  </si>
-  <si>
-    <t>李2</t>
-  </si>
-  <si>
-    <t>2005010701</t>
-  </si>
-  <si>
-    <t>李映飞</t>
-  </si>
-  <si>
-    <t>2005010702</t>
-  </si>
-  <si>
-    <t>李1</t>
+    <t>2005060101</t>
+  </si>
+  <si>
+    <t>艾志远</t>
   </si>
 </sst>
 </file>
@@ -395,20 +359,11 @@
   <cols>
     <col customWidth="true" max="1" min="1" style="1" width="20"/>
     <col customWidth="true" max="2" min="2" style="1" width="10"/>
-    <col customWidth="true" max="3" min="3" style="1" width="12"/>
-    <col customWidth="true" max="4" min="4" style="1" width="18"/>
-    <col customWidth="true" max="5" min="5" style="1" width="8"/>
-    <col customWidth="true" max="6" min="6" style="1" width="14"/>
-    <col customWidth="true" max="7" min="7" style="1" width="12"/>
-    <col customWidth="true" max="8" min="8" style="1" width="18"/>
-    <col customWidth="true" max="9" min="9" style="1" width="12"/>
-    <col customWidth="true" max="10" min="10" style="1" width="18"/>
-    <col customWidth="true" max="11" min="11" style="1" width="24"/>
-    <col customWidth="true" max="12" min="12" style="1" width="30"/>
-    <col customWidth="true" max="13" min="13" style="1" width="18"/>
-    <col customWidth="true" max="14" min="14" style="1" width="24"/>
-    <col customWidth="true" max="15" min="15" style="1" width="15"/>
-    <col customWidth="true" max="16" min="16" style="1" width="20"/>
+    <col customWidth="true" max="3" min="3" style="1" width="24"/>
+    <col customWidth="true" max="5" min="4" style="1" width="30"/>
+    <col customWidth="true" max="6" min="6" style="1" width="36"/>
+    <col customWidth="true" max="7" min="7" style="1" width="15"/>
+    <col customWidth="true" max="8" min="8" style="1" width="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -436,179 +391,31 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D2" s="1">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="E2" s="1">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="F2" s="1">
-        <v>85.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="G2" s="1">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="H2" s="1">
-        <v>83.33333333333333</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>60</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1">
-        <v>35</v>
-      </c>
-      <c r="M2" s="1">
-        <v>60</v>
-      </c>
-      <c r="N2" s="1">
-        <v>66.66666666666667</v>
-      </c>
-      <c r="O2" s="1">
-        <v>315</v>
-      </c>
-      <c r="P2" s="1">
-        <v>413.3333333333333</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="1">
-        <v>60</v>
-      </c>
-      <c r="D3" s="1">
-        <v>83</v>
-      </c>
-      <c r="E3" s="1">
-        <v>100</v>
-      </c>
-      <c r="F3" s="1">
-        <v>85.33333333333333</v>
-      </c>
-      <c r="G3" s="1">
-        <v>70</v>
-      </c>
-      <c r="H3" s="1">
-        <v>83.33333333333333</v>
-      </c>
-      <c r="I3" s="1">
-        <v>90</v>
-      </c>
-      <c r="J3" s="1">
-        <v>60</v>
-      </c>
-      <c r="K3" s="1">
-        <v>85</v>
-      </c>
-      <c r="L3" s="1">
-        <v>35</v>
-      </c>
-      <c r="M3" s="1">
-        <v>80</v>
-      </c>
-      <c r="N3" s="1">
-        <v>66.66666666666667</v>
-      </c>
-      <c r="O3" s="1">
-        <v>485</v>
-      </c>
-      <c r="P3" s="1">
-        <v>413.3333333333333</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="1">
-        <v>90</v>
-      </c>
-      <c r="D4" s="1">
-        <v>83</v>
-      </c>
-      <c r="E4" s="1">
-        <v>90</v>
-      </c>
-      <c r="F4" s="1">
-        <v>85.33333333333333</v>
-      </c>
-      <c r="G4" s="1">
-        <v>90</v>
-      </c>
-      <c r="H4" s="1">
-        <v>83.33333333333333</v>
-      </c>
-      <c r="I4" s="1">
-        <v>90</v>
-      </c>
-      <c r="J4" s="1">
-        <v>60</v>
-      </c>
-      <c r="K4" s="1">
-        <v>20</v>
-      </c>
-      <c r="L4" s="1">
-        <v>35</v>
-      </c>
-      <c r="M4" s="1">
-        <v>60</v>
-      </c>
-      <c r="N4" s="1">
-        <v>66.66666666666667</v>
-      </c>
-      <c r="O4" s="1">
-        <v>440</v>
-      </c>
-      <c r="P4" s="1">
-        <v>413.3333333333333</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
